--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4146979.749801587</v>
+        <v>4145099.570031259</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>531780.947681303</v>
+        <v>567079.2699742753</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7441213.778714038</v>
+        <v>7441213.778714039</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>111.2587861662061</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>144.5143119132926</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>134.9198292231117</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>382.8908255841847</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>82.5995718321566</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>113.5079843357167</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>9.812873897097081</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>194.9453656527047</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>75.06705067831065</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>23.79288947919988</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>203.5330926723467</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>82.76001926167726</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.75377031702896</v>
+        <v>70.41761368552095</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
         <v>275.1967010728659</v>
@@ -2065,10 +2065,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2.167901492414686</v>
       </c>
       <c r="C22" t="n">
-        <v>70.417613685521</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
         <v>275.1967010728659</v>
@@ -2302,7 +2302,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.38052139181512</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S25" t="n">
         <v>186.8801586578918</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2539,7 +2539,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>98.36269857958204</v>
       </c>
       <c r="Y25" t="n">
         <v>207.5440020263834</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>103.9706036572548</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552116</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552091</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70.41761368552093</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3013,7 +3013,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789543</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1304.21787552272</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>918.4296229244753</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>507.4437181348678</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>493.5203140734587</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>166.3255941094615</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2551.175038580553</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2551.175038580553</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2551.175038580553</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2551.175038580553</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2551.175038580553</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2177.709280319473</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2177.709280319473</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4404,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>326.5545485026371</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>326.5545485026371</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005475</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.641263708175</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.678746767763</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>840.4130481610125</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>454.6247955627683</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.241103772296</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="T7" t="n">
-        <v>369.7691122461817</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U7" t="n">
-        <v>369.7691122461817</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V7" t="n">
-        <v>369.7691122461817</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977588</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C8" t="n">
-        <v>770.1842990371763</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D8" t="n">
-        <v>411.9186004304258</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4841,13 +4841,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,28 +5024,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,13 +5060,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M12" t="n">
-        <v>1819.161927111988</v>
+        <v>967.0546881959773</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.0423951757512</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488383</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429514</v>
+        <v>985.8343999908506</v>
       </c>
       <c r="W13" t="n">
-        <v>354.6908600059909</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X13" t="n">
-        <v>354.6908600059909</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y13" t="n">
-        <v>354.6908600059909</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,16 +5294,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881927</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706316</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W16" t="n">
-        <v>447.8017392184324</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>447.8017392184324</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184324</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>334.2881267578673</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
         <v>540.2879676172993</v>
@@ -5692,31 +5692,31 @@
         <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S19" t="n">
-        <v>1586.358229057536</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T19" t="n">
-        <v>1373.724986903316</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U19" t="n">
-        <v>1095.748521173149</v>
+        <v>906.9806841449754</v>
       </c>
       <c r="V19" t="n">
-        <v>852.216206023536</v>
+        <v>663.4483689953627</v>
       </c>
       <c r="W19" t="n">
-        <v>573.9512090428495</v>
+        <v>385.1833720146763</v>
       </c>
       <c r="X19" t="n">
-        <v>357.1138312011063</v>
+        <v>168.3459941729333</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.4734251138505</v>
+        <v>168.3459941729333</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.893885873787</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729333</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366503</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937158</v>
+        <v>281.645677793716</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q22" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1273.802056521416</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449756</v>
+        <v>995.8255907912487</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953629</v>
+        <v>752.293275641636</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146765</v>
+        <v>474.0282786609495</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729333</v>
+        <v>257.1909008192062</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729333</v>
+        <v>257.1909008192062</v>
       </c>
     </row>
     <row r="23">
@@ -5975,46 +5975,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6063,19 +6063,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6148,13 +6148,13 @@
         <v>120.5300287366501</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1397.590392029363</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>1119.613926299196</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V25" t="n">
-        <v>876.0816111495828</v>
+        <v>841.5019043436305</v>
       </c>
       <c r="W25" t="n">
-        <v>597.8166141688964</v>
+        <v>563.2369073629441</v>
       </c>
       <c r="X25" t="n">
-        <v>380.9792363271532</v>
+        <v>463.880646171447</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.3388302398971</v>
+        <v>254.2402400841911</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729332</v>
+        <v>202.2379032352898</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>120.53002873665</v>
@@ -6418,16 +6418,16 @@
         <v>906.9806841449755</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953628</v>
+        <v>906.9806841449755</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146764</v>
+        <v>628.715687164289</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729332</v>
+        <v>411.8783093225458</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729332</v>
+        <v>202.2379032352898</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,31 +6449,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>571.8445279241287</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1185.741597681017</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899876</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729333</v>
+        <v>168.3459941729334</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729333</v>
+        <v>168.3459941729334</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729333</v>
+        <v>168.3459941729334</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729333</v>
+        <v>168.3459941729334</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>168.3459941729334</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>168.3459941729334</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
         <v>540.2879676172993</v>
@@ -6652,19 +6652,19 @@
         <v>1184.957149875143</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449756</v>
+        <v>906.9806841449758</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953629</v>
+        <v>663.4483689953631</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146765</v>
+        <v>385.1833720146766</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729333</v>
+        <v>168.3459941729334</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729333</v>
+        <v>168.3459941729334</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6704,7 +6704,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6780,22 +6780,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899876</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899877</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,52 +7093,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,28 +7157,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7193,10 +7193,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,55 +7327,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>417.5524109899877</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
@@ -7576,7 +7576,7 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,16 +7725,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>436.8967109626376</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7786,13 +7786,13 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,16 +7837,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11397,7 +11397,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>92.17977042031718</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>228.3447538446281</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>18.01446838604257</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.7629790749137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.0375585391969</v>
+        <v>98.37371517070495</v>
       </c>
       <c r="C19" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808139</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562258</v>
+        <v>166.6234273638112</v>
       </c>
       <c r="C22" t="n">
-        <v>85.78855608739538</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.41080746441075</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
         <v>156.2061697729164</v>
@@ -24376,13 +24376,13 @@
         <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>116.3063054837437</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>52.23556611566161</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169867</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808136</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
-        <v>63.9627830116989</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418247</v>
+        <v>67.45556335630378</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808136</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="7">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="G2" t="n">
-        <v>748956.582992519</v>
+        <v>748956.5829925193</v>
       </c>
       <c r="H2" t="n">
-        <v>748956.5829925191</v>
+        <v>748956.5829925195</v>
       </c>
       <c r="I2" t="n">
-        <v>748956.5829925191</v>
+        <v>748956.5829925194</v>
       </c>
       <c r="J2" t="n">
-        <v>748956.5829925189</v>
+        <v>748956.5829925193</v>
       </c>
       <c r="K2" t="n">
-        <v>748956.5829925189</v>
+        <v>748956.5829925193</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="M2" t="n">
         <v>779989.6813710694</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="O2" t="n">
         <v>779989.6813710694</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569132</v>
+        <v>8832.521060569301</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759054</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.7936905759054</v>
       </c>
       <c r="G4" t="n">
-        <v>4420.71819341519</v>
+        <v>4420.718193415187</v>
       </c>
       <c r="H4" t="n">
-        <v>4420.718193415199</v>
+        <v>4420.718193415147</v>
       </c>
       <c r="I4" t="n">
-        <v>4420.718193415181</v>
+        <v>4420.718193415184</v>
       </c>
       <c r="J4" t="n">
-        <v>4420.718193415194</v>
+        <v>4420.718193415175</v>
       </c>
       <c r="K4" t="n">
-        <v>4420.718193415199</v>
+        <v>4420.718193415174</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189636</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
         <v>92915.50246501787</v>
@@ -26500,13 +26500,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31896.41508750414</v>
+        <v>-31896.41508750389</v>
       </c>
       <c r="C6" t="n">
         <v>558071.4641270406</v>
       </c>
       <c r="D6" t="n">
-        <v>558071.4641270406</v>
+        <v>558071.4641270404</v>
       </c>
       <c r="E6" t="n">
-        <v>125020.0573854587</v>
+        <v>124922.5982594867</v>
       </c>
       <c r="F6" t="n">
-        <v>650180.0938623549</v>
+        <v>650082.6347363825</v>
       </c>
       <c r="G6" t="n">
-        <v>642787.8412735169</v>
+        <v>642706.1752251523</v>
       </c>
       <c r="H6" t="n">
-        <v>651620.3623340861</v>
+        <v>651538.6962857218</v>
       </c>
       <c r="I6" t="n">
-        <v>651620.3623340861</v>
+        <v>651538.6962857217</v>
       </c>
       <c r="J6" t="n">
-        <v>475197.143141493</v>
+        <v>475115.4770931286</v>
       </c>
       <c r="K6" t="n">
-        <v>651620.3623340859</v>
+        <v>651538.6962857216</v>
       </c>
       <c r="L6" t="n">
-        <v>604562.482515435</v>
+        <v>604562.4825154352</v>
       </c>
       <c r="M6" t="n">
-        <v>524266.9793853104</v>
+        <v>524266.9793853105</v>
       </c>
       <c r="N6" t="n">
-        <v>659067.9946191476</v>
+        <v>659067.9946191479</v>
       </c>
       <c r="O6" t="n">
         <v>659067.9946191476</v>
@@ -26698,28 +26698,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H2" t="n">
+        <v>11.04065132571141</v>
+      </c>
+      <c r="I2" t="n">
         <v>11.04065132571144</v>
       </c>
-      <c r="I2" t="n">
-        <v>11.04065132571143</v>
-      </c>
       <c r="J2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964069</v>
@@ -26744,25 +26744,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26920,14 +26920,14 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>40.67253007865516</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9014008956789</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.623767952376511e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>21.25105961868348</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.98522015752673</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>133.8487485255012</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>103.347338541018</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>111.5271211223675</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>372.1174961751647</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>218.8388043680903</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="26">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31148,19 +31148,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31619,7 +31619,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,28 +31832,28 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>212.6272478467031</v>
+        <v>322.7668397349904</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,28 +32069,28 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>4.797192695340925</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32324,7 +32324,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>319.6115048322624</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32333,16 +32333,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32558,13 +32558,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>429.7571393808935</v>
       </c>
       <c r="O21" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,19 +32786,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>147.8809216101172</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32813,10 +32813,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>380.4309478731437</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>184.7966406602455</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>380.4309478731437</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>380.4309478731435</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4309478731434</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4309478731437</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>380.4309478731436</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34469,13 +34469,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>536.1982776746847</v>
+        <v>646.3378695629719</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>352.7978549555611</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>667.6121670924827</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>777.7578016411137</v>
       </c>
       <c r="O21" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
@@ -36285,7 +36285,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
         <v>284.317529131315</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>380.1668871337022</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127697</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M25" t="n">
         <v>285.350492504684</v>
       </c>
       <c r="N25" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758618</v>
+        <v>50.2663512975862</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>728.431610133364</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
         <v>284.317529131315</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36850,10 +36850,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>311.4204386984651</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>728.431610133364</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
@@ -36996,7 +36996,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M31" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N31" t="n">
         <v>284.317529131315</v>
@@ -37008,7 +37008,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>728.4316101333637</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>728.4316101333636</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>728.431610133364</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>728.4316101333638</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
